--- a/metal-lda_dataset_study1.xlsx
+++ b/metal-lda_dataset_study1.xlsx
@@ -577,7 +577,7 @@
     <t xml:space="preserve">Can't accept this</t>
   </si>
   <si>
-    <t xml:space="preserve">no MBID available</t>
+    <t xml:space="preserve">(no MBID; https://archive.org/details/Zenturbo-10_2000/Zenturbo-2000-03_Cant_Accept_This.wav)</t>
   </si>
 </sst>
 </file>
@@ -667,13 +667,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -697,22 +693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B57" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="5" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,765 +822,765 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>109</v>
       </c>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>112</v>
       </c>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>115</v>
       </c>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>119</v>
       </c>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>122</v>
       </c>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>125</v>
       </c>
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>131</v>
       </c>
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>134</v>
       </c>
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>137</v>
       </c>
       <c r="AMH47" s="0"/>
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>140</v>
       </c>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>143</v>
       </c>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>149</v>
       </c>
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>152</v>
       </c>
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>155</v>
       </c>
       <c r="AMH53" s="0"/>
@@ -1715,17 +1713,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>185</v>
       </c>
       <c r="AMH63" s="0"/>
@@ -1733,9 +1731,12 @@
       <c r="AMJ63" s="0"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D63" r:id="rId1" display="https://archive.org/details/Zenturbo-10_2000/Zenturbo-2000-03_Cant_Accept_This.wav"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
